--- a/Guru-Payment/1 - Analysis/Test Scenarios.xlsx
+++ b/Guru-Payment/1 - Analysis/Test Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Payment\2 - Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Payment\1 - Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E28BF4-AF83-49F0-8ECB-28865ED97A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC392EB9-E705-4930-8A00-BC426728E4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Questions</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Actors</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Add items to the cart</t>
+  </si>
+  <si>
+    <t>Generate Credit card</t>
+  </si>
+  <si>
+    <t>Check Credit card balance</t>
   </si>
 </sst>
 </file>
@@ -102,18 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +408,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J20"/>
+      <selection activeCell="A7" sqref="A7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,59 +417,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -472,233 +483,265 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A9:E9"/>
@@ -715,32 +758,6 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
